--- a/Growth/Output/Growth_summary.xlsx
+++ b/Growth/Output/Growth_summary.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\Oyster-Projects\Growth\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7FF594-EB3A-4EF2-AE5E-DA2DB72C869B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4B8B82-23B9-4213-9C48-05F183120424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{939FAC7B-63C9-4B17-A23F-D7573680979A}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="2" xr2:uid="{939FAC7B-63C9-4B17-A23F-D7573680979A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="SH_sum_data" sheetId="2" r:id="rId2"/>
+    <sheet name="Dead_summ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="554">
   <si>
     <t>Data summaries for Cage NSA presentation</t>
   </si>
@@ -1675,12 +1676,39 @@
   </si>
   <si>
     <t>SLCAGE_20241205_1_0255</t>
+  </si>
+  <si>
+    <t>DeadRate_mean</t>
+  </si>
+  <si>
+    <t>DeadRate_sd</t>
+  </si>
+  <si>
+    <t>DeadCountRate_mean</t>
+  </si>
+  <si>
+    <t>DeadCountRate_sd</t>
+  </si>
+  <si>
+    <t>MissPct_mean</t>
+  </si>
+  <si>
+    <t>MissPct_sd</t>
+  </si>
+  <si>
+    <t>Comparison_mean</t>
+  </si>
+  <si>
+    <t>Comparison_sd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1718,7 +1746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1730,11 +1758,49 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="42">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1891,10 +1957,10 @@
   <autoFilter ref="A5:E124" xr:uid="{AE8134F0-15F8-4440-B7BE-9E936C104721}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0BF75C4B-B6DF-4049-AB10-1B99579A2774}" name="MonYr"/>
-    <tableColumn id="2" xr3:uid="{D94822BC-C3B2-4236-B5B0-F5CB6D4966AF}" name="CRE" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{09131C91-9330-42FE-B1CF-C1392DA03051}" name="CRW" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{A3B3CBA9-E2DB-49FB-B8C7-FDAF27040EB0}" name="LXN" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{7398E8F4-4284-48ED-AAF6-BD5D7F218322}" name="SLC" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{D94822BC-C3B2-4236-B5B0-F5CB6D4966AF}" name="CRE" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{09131C91-9330-42FE-B1CF-C1392DA03051}" name="CRW" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{A3B3CBA9-E2DB-49FB-B8C7-FDAF27040EB0}" name="LXN" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{7398E8F4-4284-48ED-AAF6-BD5D7F218322}" name="SLC" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1905,44 +1971,62 @@
   <autoFilter ref="G5:K124" xr:uid="{D8143C2D-8E28-45CE-8127-31803E26007A}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9864581E-95B1-43A3-97AC-DA1AB68503AD}" name="MonYr"/>
-    <tableColumn id="2" xr3:uid="{36746BC2-C1A1-463B-A8A8-AC4DF36BE18B}" name="CRE" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{50CDAFEC-BC40-405E-9471-8631406EA392}" name="CRW" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{BC2E8178-E2CE-4BC7-8814-FCA75906BE7E}" name="LXN" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{DB96C9C0-616C-472D-9671-13E909096EDD}" name="SLC" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{36746BC2-C1A1-463B-A8A8-AC4DF36BE18B}" name="CRE" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{50CDAFEC-BC40-405E-9471-8631406EA392}" name="CRW" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{BC2E8178-E2CE-4BC7-8814-FCA75906BE7E}" name="LXN" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{DB96C9C0-616C-472D-9671-13E909096EDD}" name="SLC" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0A445D67-74BE-43F7-9C50-CFB16455FE73}" name="Table3" displayName="Table3" ref="M5:AK9" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0A445D67-74BE-43F7-9C50-CFB16455FE73}" name="Table3" displayName="Table3" ref="M5:AK9" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="M5:AK9" xr:uid="{0A445D67-74BE-43F7-9C50-CFB16455FE73}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{BD2B9480-2297-4AB3-8E6F-747F9CB0DCB0}" name="Site"/>
-    <tableColumn id="2" xr3:uid="{FD51D2C2-4228-43C7-8155-A81E26C07CBB}" name="DaysDeployed_mean" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{1223F49D-0CB9-49E2-9570-28C53D2F2C58}" name="DaysDeployed_sd" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{3DB713FF-1343-41AF-975B-3A738F6FC9E0}" name="Dep_MaxSH_mean" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{CF295C20-6696-469F-B8EC-C247D8ED658C}" name="Dep_MaxSH_sd" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{27B9C0F1-2F5E-41D0-98E2-85C4E0812802}" name="Dep_MeanSH_mean" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{DBB9722A-303D-4DBC-8332-100CCE515B66}" name="Dep_MeanSH_sd" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{1D08883A-726A-4613-99B2-70ECDC450142}" name="Dep_MinSH_mean" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{362010BF-CBB3-444E-8322-D1ADF02D85ED}" name="Dep_MinSH_sd" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{31018D77-9F59-4810-AF9C-CDFE3DBF1F69}" name="Ret_MaxSH_mean" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{64E68BC7-8E02-4FAC-B7F7-55E94A40B0D7}" name="Ret_MaxSH_sd" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{8336C867-A07C-48ED-9AED-7859F92624E8}" name="Ret_MeanSH_mean" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{6FBF0256-F36A-43E6-883B-564DA0449D11}" name="Ret_MeanSH_sd" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{E9079FCB-CFFB-4983-B39C-F49774E92CE3}" name="Ret_MinSH_mean" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{972DF74E-DF15-4C8B-85FA-76A636FF9456}" name="Ret_MinSH_sd" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{38223DA3-C2F8-4EF6-9F74-610A1077F832}" name="Min_growth_mean" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{7DAEC133-FD7B-4E91-A8A6-16B8A21E8802}" name="Min_growth_sd" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{0ED5AE5A-007A-4360-A2FC-F9DC49F7848E}" name="Max_growth_mean" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{FEE138A6-22DD-4251-B076-5E4687E16BC2}" name="Max_growth_sd" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{056FBC8E-1988-42A6-AAE8-337D091E0E77}" name="Mean_growth_mean" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{73987E4B-F1D4-4C9D-9796-D2160DCD68E5}" name="Mean_growth_sd" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{7E9B89AA-5F93-4A4A-B2D0-BEE3378B0CA3}" name="Growth_rate_mean" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{9B81E531-46EA-443A-A684-C93A706299A0}" name="Growth_rate_sd" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{33AF809F-5926-4D9F-AB42-63189D082239}" name="Month_rate_mean" dataDxfId="1"/>
-    <tableColumn id="25" xr3:uid="{F49F5B48-72A2-475E-8933-24BC2BA3B68B}" name="Month_rate_sd" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{FD51D2C2-4228-43C7-8155-A81E26C07CBB}" name="DaysDeployed_mean" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{1223F49D-0CB9-49E2-9570-28C53D2F2C58}" name="DaysDeployed_sd" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{3DB713FF-1343-41AF-975B-3A738F6FC9E0}" name="Dep_MaxSH_mean" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{CF295C20-6696-469F-B8EC-C247D8ED658C}" name="Dep_MaxSH_sd" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{27B9C0F1-2F5E-41D0-98E2-85C4E0812802}" name="Dep_MeanSH_mean" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{DBB9722A-303D-4DBC-8332-100CCE515B66}" name="Dep_MeanSH_sd" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{1D08883A-726A-4613-99B2-70ECDC450142}" name="Dep_MinSH_mean" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{362010BF-CBB3-444E-8322-D1ADF02D85ED}" name="Dep_MinSH_sd" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{31018D77-9F59-4810-AF9C-CDFE3DBF1F69}" name="Ret_MaxSH_mean" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{64E68BC7-8E02-4FAC-B7F7-55E94A40B0D7}" name="Ret_MaxSH_sd" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{8336C867-A07C-48ED-9AED-7859F92624E8}" name="Ret_MeanSH_mean" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{6FBF0256-F36A-43E6-883B-564DA0449D11}" name="Ret_MeanSH_sd" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{E9079FCB-CFFB-4983-B39C-F49774E92CE3}" name="Ret_MinSH_mean" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{972DF74E-DF15-4C8B-85FA-76A636FF9456}" name="Ret_MinSH_sd" dataDxfId="19"/>
+    <tableColumn id="16" xr3:uid="{38223DA3-C2F8-4EF6-9F74-610A1077F832}" name="Min_growth_mean" dataDxfId="18"/>
+    <tableColumn id="17" xr3:uid="{7DAEC133-FD7B-4E91-A8A6-16B8A21E8802}" name="Min_growth_sd" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{0ED5AE5A-007A-4360-A2FC-F9DC49F7848E}" name="Max_growth_mean" dataDxfId="16"/>
+    <tableColumn id="19" xr3:uid="{FEE138A6-22DD-4251-B076-5E4687E16BC2}" name="Max_growth_sd" dataDxfId="15"/>
+    <tableColumn id="20" xr3:uid="{056FBC8E-1988-42A6-AAE8-337D091E0E77}" name="Mean_growth_mean" dataDxfId="14"/>
+    <tableColumn id="21" xr3:uid="{73987E4B-F1D4-4C9D-9796-D2160DCD68E5}" name="Mean_growth_sd" dataDxfId="13"/>
+    <tableColumn id="22" xr3:uid="{7E9B89AA-5F93-4A4A-B2D0-BEE3378B0CA3}" name="Growth_rate_mean" dataDxfId="12"/>
+    <tableColumn id="23" xr3:uid="{9B81E531-46EA-443A-A684-C93A706299A0}" name="Growth_rate_sd" dataDxfId="11"/>
+    <tableColumn id="24" xr3:uid="{33AF809F-5926-4D9F-AB42-63189D082239}" name="Month_rate_mean" dataDxfId="10"/>
+    <tableColumn id="25" xr3:uid="{F49F5B48-72A2-475E-8933-24BC2BA3B68B}" name="Month_rate_sd" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{705BFD2C-0650-453A-AEF5-819520A836B4}" name="Table4" displayName="Table4" ref="A3:I7" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A3:I7" xr:uid="{705BFD2C-0650-453A-AEF5-819520A836B4}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{3B3EBEA6-0A23-4AE7-B68C-ECDAEDB2623E}" name="Site"/>
+    <tableColumn id="2" xr3:uid="{05CCD063-0641-4509-8C93-2372B41F8486}" name="DeadRate_mean" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{6398DDEE-1997-47FA-BA63-DD5778A60281}" name="DeadRate_sd" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{08741057-0F1C-4E6F-9B2B-617E80FE1954}" name="DeadCountRate_mean" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{F6266B01-F44C-4BD7-8811-380695994ABA}" name="DeadCountRate_sd" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{2389FD82-A10E-42C0-9685-07DCC0F91868}" name="MissPct_mean" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{3DB0F6D3-93E5-4DE7-A83B-9F0397D041CE}" name="MissPct_sd" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{2F705A90-D348-4305-B0C7-9F804354C943}" name="Comparison_mean" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{01EA83E3-43B5-4DB3-A71D-ACFB120052D4}" name="Comparison_sd" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2267,7 +2351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA64A8CC-DADA-4260-A57B-5C10DC5AB401}">
   <dimension ref="A1:AK124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24382,4 +24466,178 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1455B5EA-163D-4EB2-9470-09BE94558AE6}">
+  <dimension ref="A3:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F3" t="s">
+        <v>550</v>
+      </c>
+      <c r="G3" t="s">
+        <v>551</v>
+      </c>
+      <c r="H3" t="s">
+        <v>552</v>
+      </c>
+      <c r="I3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.52307689999999996</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3.7521819999999997E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.3728580000000003E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>47.556719999999999</v>
+      </c>
+      <c r="G4" s="5">
+        <v>25.91189</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.95811519999999994</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.20085239999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.61742109999999994</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.30194219999999999</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4.568966E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5.6348769999999999E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>55.359200000000001</v>
+      </c>
+      <c r="G5" s="5">
+        <v>31.110060000000001</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.94396550000000001</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.26540459999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.50018989999999997</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.25250479999999997</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.8342969999999997E-2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5.7151519999999997E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>45.558770000000003</v>
+      </c>
+      <c r="G6" s="5">
+        <v>25.399090000000001</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.94508669999999995</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.22814090000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.47424709999999998</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.35951549999999999</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4.0025739999999997E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>6.0842489999999999E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>30.862290000000002</v>
+      </c>
+      <c r="G7" s="5">
+        <v>28.357009999999999</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.84942079999999998</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.38943119999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>